--- a/academias/Inglés - Estadisticos 20202.xlsx
+++ b/academias/Inglés - Estadisticos 20202.xlsx
@@ -879,13 +879,13 @@
         <v>12.82</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>12.82</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -902,25 +902,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>82.34999999999999</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="H12">
-        <v>17.65</v>
+        <v>14.71</v>
       </c>
       <c r="I12">
         <v>7</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>14.71</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1147,25 +1147,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>83.33</v>
+        <v>97.22</v>
       </c>
       <c r="H19">
-        <v>16.67</v>
+        <v>2.78</v>
       </c>
       <c r="I19">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1182,25 +1182,25 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>16.13</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>16.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1217,25 +1217,25 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H21">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I21">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1252,25 +1252,25 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>82.5</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1287,25 +1287,25 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>82.61</v>
+        <v>91.3</v>
       </c>
       <c r="H23">
-        <v>17.39</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I23">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>17.39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1701,13 +1701,13 @@
         <v>17.95</v>
       </c>
       <c r="I11">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1724,25 +1724,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>76.47</v>
+        <v>79.41</v>
       </c>
       <c r="H12">
-        <v>23.53</v>
+        <v>20.59</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>23.53</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1969,25 +1969,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>83.33</v>
+        <v>97.22</v>
       </c>
       <c r="H19">
-        <v>16.67</v>
+        <v>2.78</v>
       </c>
       <c r="I19">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2004,25 +2004,25 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>16.13</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>16.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2039,25 +2039,25 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H21">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I21">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2074,25 +2074,25 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>82.5</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2109,25 +2109,25 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>82.61</v>
+        <v>91.3</v>
       </c>
       <c r="H23">
-        <v>17.39</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I23">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>17.39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2511,25 +2511,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>87.18000000000001</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H11">
-        <v>12.82</v>
+        <v>10.26</v>
       </c>
       <c r="I11">
         <v>8.1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>12.82</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2546,25 +2546,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>85.29000000000001</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="H12">
-        <v>14.71</v>
+        <v>11.76</v>
       </c>
       <c r="I12">
         <v>7.5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>14.71</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2581,19 +2581,19 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>74.36</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>25.64</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2616,19 +2616,19 @@
         <v>41</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>90.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>9.76</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2651,19 +2651,19 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2686,19 +2686,19 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>84.62</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>35</v>
       </c>
       <c r="E17">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>77.14</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>22.86</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2756,19 +2756,19 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>83.33</v>
+        <v>97.22</v>
       </c>
       <c r="H19">
-        <v>16.67</v>
+        <v>2.78</v>
       </c>
       <c r="I19">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2826,25 +2826,25 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>16.13</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>16.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2861,25 +2861,25 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H21">
-        <v>19.05</v>
+        <v>4.76</v>
       </c>
       <c r="I21">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2896,25 +2896,25 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>82.5</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>17.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2931,25 +2931,25 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>82.61</v>
+        <v>91.3</v>
       </c>
       <c r="H23">
-        <v>17.39</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I23">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>17.39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Inglés - Estadisticos 20202.xlsx
+++ b/academias/Inglés - Estadisticos 20202.xlsx
@@ -867,25 +867,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>87.18000000000001</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H11">
-        <v>12.82</v>
+        <v>10.26</v>
       </c>
       <c r="I11">
         <v>7.4</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>10.26</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -902,25 +902,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>85.29000000000001</v>
+        <v>97.06</v>
       </c>
       <c r="H12">
-        <v>14.71</v>
+        <v>2.94</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>11.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1689,25 +1689,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>82.05</v>
+        <v>84.62</v>
       </c>
       <c r="H11">
-        <v>17.95</v>
+        <v>15.38</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>15.38</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1724,25 +1724,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>79.41</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>20.59</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2511,25 +2511,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>89.73999999999999</v>
+        <v>92.31</v>
       </c>
       <c r="H11">
-        <v>10.26</v>
+        <v>7.69</v>
       </c>
       <c r="I11">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>10.26</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2546,25 +2546,25 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>88.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H12">
-        <v>11.76</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>11.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
